--- a/biology/Microbiologie/Barnesiella/Barnesiella.xlsx
+++ b/biology/Microbiologie/Barnesiella/Barnesiella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barnesiella est un  genre de bactéries à Gram négatif de l'ordre des Bacteroidales et du phylum Bacteroidota.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Barnesiella a été créée en 2007 pour contenir deux souches de bactéries isolées du caecum de poulets et qui ont été appelées Barnesiella viscericola[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Barnesiella a été créée en 2007 pour contenir deux souches de bactéries isolées du caecum de poulets et qui ont été appelées Barnesiella viscericola.
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie du genre Barnesiella est la suivante :  Bar.nes.i.el’la N.L. fem. dim. n. Barnesiella, nommé en l'honneur de Ella M. Barnes, microbiologiste britannique qui a beaucoup contribué dans les connaissances sur les bactéries intestinales et les bactéries anaérobies[2],[3].
-Classification Phylogénique
-L'analyse phylogénétique de séquences de l'ARNr 16S a permis de classer les Barnesiella proches de Parabacteroides distasonis. Elles ont donc été classée au sein de la famille Porphyromonadaceae dès leur description et dans le Bergey's Manual[4]. En 2016, les Barnesiella sont reclassées dans la famille des Barnesiellaceae nouvellement créée et dont elles deviennent le genre type, et donc séparées de la famille Porphyromonadaceae tout en restant incluses dans l'ordre des Bacteroidales[5], la classe des Bacteroidia et dans le phylum Bacteroidota[3].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du genre Barnesiella est la suivante :  Bar.nes.i.el’la N.L. fem. dim. n. Barnesiella, nommé en l'honneur de Ella M. Barnes, microbiologiste britannique qui a beaucoup contribué dans les connaissances sur les bactéries intestinales et les bactéries anaérobies,.
 </t>
         </is>
       </c>
@@ -573,12 +590,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification Phylogénique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique de séquences de l'ARNr 16S a permis de classer les Barnesiella proches de Parabacteroides distasonis. Elles ont donc été classée au sein de la famille Porphyromonadaceae dès leur description et dans le Bergey's Manual. En 2016, les Barnesiella sont reclassées dans la famille des Barnesiellaceae nouvellement créée et dont elles deviennent le genre type, et donc séparées de la famille Porphyromonadaceae tout en restant incluses dans l'ordre des Bacteroidales, la classe des Bacteroidia et dans le phylum Bacteroidota.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Barnesiella</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barnesiella</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Barnesiella sont des bacilles anaérobies à Gram-négatif. Elles sont non-pigmentées et ne forment pas de spores. Deplus, elles sont non mobiles[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Barnesiella sont des bacilles anaérobies à Gram-négatif. Elles sont non-pigmentées et ne forment pas de spores. Deplus, elles sont non mobiles.
 </t>
         </is>
       </c>
